--- a/NformTester/NformTester/Keywordscripts/600.40.20.10_PermissionForNewActionOfEachGroup.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.20.10_PermissionForNewActionOfEachGroup.xlsx
@@ -4808,8 +4808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F139" sqref="F139"/>
+    <sheetView tabSelected="1" topLeftCell="D43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6808,7 +6808,7 @@
         <v>833</v>
       </c>
       <c r="J73" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="20"/>
       <c r="L73" s="20"/>

--- a/NformTester/NformTester/Keywordscripts/600.40.20.10_PermissionForNewActionOfEachGroup.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.20.10_PermissionForNewActionOfEachGroup.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="2535" windowWidth="18195" windowHeight="14070"/>
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7713" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7717" uniqueCount="856">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4081,7 +4081,21 @@
     <cellStyle name="常规 2 3" xfId="4"/>
     <cellStyle name="常规 2 4" xfId="3"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4806,10 +4820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O196"/>
+  <dimension ref="A1:O197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5024,7 +5038,7 @@
         <v>759</v>
       </c>
       <c r="B7" s="3">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -6808,7 +6822,7 @@
         <v>833</v>
       </c>
       <c r="J73" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="20"/>
       <c r="L73" s="20"/>
@@ -7761,18 +7775,18 @@
       <c r="L112" s="20"/>
       <c r="M112" s="20"/>
     </row>
-    <row r="113" spans="3:13">
+    <row r="113" spans="3:14">
       <c r="C113" s="4">
         <v>112</v>
       </c>
-      <c r="D113" s="18" t="s">
-        <v>852</v>
+      <c r="D113" s="21" t="s">
+        <v>786</v>
       </c>
       <c r="E113" s="19" t="s">
         <v>19</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>70</v>
+        <v>814</v>
       </c>
       <c r="G113" s="19" t="s">
         <v>2</v>
@@ -7783,58 +7797,59 @@
       <c r="K113" s="20"/>
       <c r="L113" s="20"/>
       <c r="M113" s="20"/>
-    </row>
-    <row r="114" spans="3:13">
+      <c r="N113" s="12"/>
+    </row>
+    <row r="114" spans="3:14">
       <c r="C114" s="4">
         <v>113</v>
       </c>
-      <c r="D114" s="21" t="s">
-        <v>854</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>793</v>
-      </c>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>795</v>
-      </c>
-      <c r="J114" s="4" t="s">
-        <v>796</v>
-      </c>
+      <c r="D114" s="18" t="s">
+        <v>852</v>
+      </c>
+      <c r="E114" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G114" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H114" s="19"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
       <c r="K114" s="20"/>
       <c r="L114" s="20"/>
       <c r="M114" s="20"/>
     </row>
-    <row r="115" spans="3:13">
+    <row r="115" spans="3:14">
       <c r="C115" s="4">
         <v>114</v>
       </c>
       <c r="D115" s="21" t="s">
-        <v>786</v>
-      </c>
-      <c r="E115" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F115" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="20"/>
-      <c r="J115" s="20"/>
+        <v>854</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>796</v>
+      </c>
       <c r="K115" s="20"/>
       <c r="L115" s="20"/>
       <c r="M115" s="20"/>
     </row>
-    <row r="116" spans="3:13">
+    <row r="116" spans="3:14">
       <c r="C116" s="4">
         <v>115</v>
       </c>
@@ -7845,7 +7860,7 @@
         <v>19</v>
       </c>
       <c r="F116" s="20" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="G116" s="20" t="s">
         <v>2</v>
@@ -7857,66 +7872,66 @@
       <c r="L116" s="20"/>
       <c r="M116" s="20"/>
     </row>
-    <row r="117" spans="3:13">
+    <row r="117" spans="3:14">
       <c r="C117" s="4">
         <v>116</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>817</v>
-      </c>
-      <c r="E117" s="19" t="s">
-        <v>300</v>
+        <v>786</v>
+      </c>
+      <c r="E117" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="F117" s="20" t="s">
-        <v>303</v>
+        <v>75</v>
       </c>
       <c r="G117" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H117" s="19" t="s">
-        <v>834</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H117" s="19"/>
       <c r="I117" s="20"/>
       <c r="J117" s="20"/>
       <c r="K117" s="20"/>
       <c r="L117" s="20"/>
       <c r="M117" s="20"/>
     </row>
-    <row r="118" spans="3:13">
+    <row r="118" spans="3:14">
       <c r="C118" s="4">
         <v>117</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>786</v>
+        <v>817</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>300</v>
       </c>
       <c r="F118" s="20" t="s">
-        <v>178</v>
+        <v>303</v>
       </c>
       <c r="G118" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
+        <v>56</v>
+      </c>
+      <c r="H118" s="19" t="s">
+        <v>834</v>
+      </c>
+      <c r="I118" s="20"/>
       <c r="J118" s="20"/>
       <c r="K118" s="20"/>
       <c r="L118" s="20"/>
       <c r="M118" s="20"/>
     </row>
-    <row r="119" spans="3:13">
+    <row r="119" spans="3:14">
       <c r="C119" s="4">
         <v>118</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>855</v>
+        <v>786</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>843</v>
+        <v>300</v>
       </c>
       <c r="F119" s="20" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="G119" s="20" t="s">
         <v>2</v>
@@ -7928,66 +7943,66 @@
       <c r="L119" s="20"/>
       <c r="M119" s="20"/>
     </row>
-    <row r="120" spans="3:13">
+    <row r="120" spans="3:14">
       <c r="C120" s="4">
         <v>119</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>817</v>
+        <v>855</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>300</v>
+        <v>843</v>
       </c>
       <c r="F120" s="20" t="s">
-        <v>303</v>
+        <v>194</v>
       </c>
       <c r="G120" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H120" s="19" t="s">
-        <v>850</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H120" s="19"/>
       <c r="I120" s="19"/>
       <c r="J120" s="20"/>
       <c r="K120" s="20"/>
       <c r="L120" s="20"/>
       <c r="M120" s="20"/>
     </row>
-    <row r="121" spans="3:13">
+    <row r="121" spans="3:14">
       <c r="C121" s="4">
         <v>120</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>786</v>
+        <v>817</v>
       </c>
       <c r="E121" s="19" t="s">
         <v>300</v>
       </c>
       <c r="F121" s="20" t="s">
-        <v>178</v>
+        <v>303</v>
       </c>
       <c r="G121" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H121" s="19"/>
+        <v>56</v>
+      </c>
+      <c r="H121" s="19" t="s">
+        <v>850</v>
+      </c>
       <c r="I121" s="19"/>
       <c r="J121" s="20"/>
       <c r="K121" s="20"/>
       <c r="L121" s="20"/>
       <c r="M121" s="20"/>
     </row>
-    <row r="122" spans="3:13">
+    <row r="122" spans="3:14">
       <c r="C122" s="4">
         <v>121</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>855</v>
+        <v>786</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>843</v>
+        <v>300</v>
       </c>
       <c r="F122" s="20" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="G122" s="20" t="s">
         <v>2</v>
@@ -7999,18 +8014,18 @@
       <c r="L122" s="20"/>
       <c r="M122" s="20"/>
     </row>
-    <row r="123" spans="3:13">
+    <row r="123" spans="3:14">
       <c r="C123" s="4">
         <v>122</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="E123" s="19" t="s">
-        <v>300</v>
+        <v>843</v>
       </c>
       <c r="F123" s="20" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="G123" s="20" t="s">
         <v>2</v>
@@ -8022,41 +8037,41 @@
       <c r="L123" s="20"/>
       <c r="M123" s="20"/>
     </row>
-    <row r="124" spans="3:13">
+    <row r="124" spans="3:14">
       <c r="C124" s="4">
         <v>123</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>831</v>
+        <v>848</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F124" s="19" t="s">
-        <v>797</v>
-      </c>
-      <c r="G124" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="F124" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G124" s="20" t="s">
         <v>2</v>
       </c>
       <c r="H124" s="19"/>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-      <c r="M124" s="4"/>
-    </row>
-    <row r="125" spans="3:13">
+      <c r="I124" s="19"/>
+      <c r="J124" s="20"/>
+      <c r="K124" s="20"/>
+      <c r="L124" s="20"/>
+      <c r="M124" s="20"/>
+    </row>
+    <row r="125" spans="3:14">
       <c r="C125" s="4">
         <v>124</v>
       </c>
       <c r="D125" s="21" t="s">
-        <v>786</v>
+        <v>831</v>
       </c>
       <c r="E125" s="19" t="s">
         <v>19</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>77</v>
+        <v>797</v>
       </c>
       <c r="G125" s="19" t="s">
         <v>2</v>
@@ -8068,7 +8083,7 @@
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
     </row>
-    <row r="126" spans="3:13">
+    <row r="126" spans="3:14">
       <c r="C126" s="4">
         <v>125</v>
       </c>
@@ -8076,24 +8091,22 @@
         <v>786</v>
       </c>
       <c r="E126" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H126" s="19" t="s">
-        <v>825</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F126" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G126" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H126" s="19"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
     </row>
-    <row r="127" spans="3:13">
+    <row r="127" spans="3:14">
       <c r="C127" s="4">
         <v>126</v>
       </c>
@@ -8103,34 +8116,36 @@
       <c r="E127" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="F127" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="G127" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H127" s="19"/>
+      <c r="F127" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H127" s="19" t="s">
+        <v>825</v>
+      </c>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
     </row>
-    <row r="128" spans="3:13">
+    <row r="128" spans="3:14">
       <c r="C128" s="4">
         <v>127</v>
       </c>
-      <c r="D128" s="13" t="s">
+      <c r="D128" s="21" t="s">
         <v>786</v>
       </c>
       <c r="E128" s="19" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="G128" s="19" t="s">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="4"/>
@@ -8143,17 +8158,17 @@
       <c r="C129" s="4">
         <v>128</v>
       </c>
-      <c r="D129" s="18" t="s">
-        <v>853</v>
+      <c r="D129" s="13" t="s">
+        <v>786</v>
       </c>
       <c r="E129" s="19" t="s">
         <v>272</v>
       </c>
       <c r="F129" s="19" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="G129" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="4"/>
@@ -8166,17 +8181,17 @@
       <c r="C130" s="4">
         <v>129</v>
       </c>
-      <c r="D130" s="13" t="s">
-        <v>817</v>
+      <c r="D130" s="18" t="s">
+        <v>853</v>
       </c>
       <c r="E130" s="19" t="s">
         <v>272</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>17</v>
+        <v>295</v>
       </c>
       <c r="G130" s="19" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="4"/>
@@ -8190,13 +8205,13 @@
         <v>130</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>786</v>
+        <v>817</v>
       </c>
       <c r="E131" s="19" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>244</v>
+        <v>17</v>
       </c>
       <c r="G131" s="19" t="s">
         <v>2</v>
@@ -8216,23 +8231,17 @@
         <v>786</v>
       </c>
       <c r="E132" s="19" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="G132" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H132" s="22" t="s">
-        <v>826</v>
-      </c>
-      <c r="I132" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="J132" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H132" s="19"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
       <c r="M132" s="4"/>
@@ -8241,14 +8250,14 @@
       <c r="C133" s="4">
         <v>132</v>
       </c>
-      <c r="D133" s="18" t="s">
-        <v>816</v>
+      <c r="D133" s="13" t="s">
+        <v>786</v>
       </c>
       <c r="E133" s="19" t="s">
         <v>272</v>
       </c>
       <c r="F133" s="19" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="G133" s="19" t="s">
         <v>7</v>
@@ -8260,7 +8269,7 @@
         <v>815</v>
       </c>
       <c r="J133" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
@@ -8277,14 +8286,20 @@
         <v>272</v>
       </c>
       <c r="F134" s="19" t="s">
-        <v>109</v>
+        <v>295</v>
       </c>
       <c r="G134" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H134" s="22" t="s">
+        <v>826</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="J134" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
       <c r="M134" s="4"/>
@@ -8297,17 +8312,15 @@
         <v>816</v>
       </c>
       <c r="E135" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H135" s="19" t="s">
-        <v>828</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="F135" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G135" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H135" s="19"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
@@ -8324,13 +8337,15 @@
       <c r="E136" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="F136" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="G136" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H136" s="19"/>
+      <c r="F136" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H136" s="19" t="s">
+        <v>828</v>
+      </c>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
@@ -8368,13 +8383,13 @@
         <v>816</v>
       </c>
       <c r="E138" s="19" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="F138" s="19" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="G138" s="19" t="s">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="4"/>
@@ -8394,7 +8409,7 @@
         <v>272</v>
       </c>
       <c r="F139" s="19" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G139" s="19" t="s">
         <v>137</v>
@@ -8417,7 +8432,7 @@
         <v>272</v>
       </c>
       <c r="F140" s="19" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="G140" s="19" t="s">
         <v>137</v>
@@ -8440,10 +8455,10 @@
         <v>272</v>
       </c>
       <c r="F141" s="19" t="s">
-        <v>17</v>
+        <v>295</v>
       </c>
       <c r="G141" s="19" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="4"/>
@@ -8460,10 +8475,10 @@
         <v>816</v>
       </c>
       <c r="E142" s="19" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="F142" s="19" t="s">
-        <v>244</v>
+        <v>17</v>
       </c>
       <c r="G142" s="19" t="s">
         <v>2</v>
@@ -8483,23 +8498,17 @@
         <v>816</v>
       </c>
       <c r="E143" s="19" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="F143" s="19" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="G143" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H143" s="22" t="s">
-        <v>826</v>
-      </c>
-      <c r="I143" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="J143" s="4" t="b">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H143" s="19"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
@@ -8515,7 +8524,7 @@
         <v>272</v>
       </c>
       <c r="F144" s="19" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="G144" s="19" t="s">
         <v>7</v>
@@ -8544,7 +8553,7 @@
         <v>272</v>
       </c>
       <c r="F145" s="19" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="G145" s="19" t="s">
         <v>7</v>
@@ -8573,14 +8582,20 @@
         <v>272</v>
       </c>
       <c r="F146" s="19" t="s">
-        <v>109</v>
+        <v>280</v>
       </c>
       <c r="G146" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H146" s="22" t="s">
+        <v>826</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="J146" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
       <c r="M146" s="4"/>
@@ -8593,17 +8608,15 @@
         <v>816</v>
       </c>
       <c r="E147" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H147" s="4" t="s">
-        <v>845</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="F147" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G147" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H147" s="19"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
@@ -8620,13 +8633,15 @@
       <c r="E148" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="F148" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="G148" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H148" s="4"/>
+      <c r="F148" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>845</v>
+      </c>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
@@ -8643,15 +8658,13 @@
       <c r="E149" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="F149" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H149" s="4" t="s">
-        <v>846</v>
-      </c>
+      <c r="F149" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="G149" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
@@ -8668,13 +8681,15 @@
       <c r="E150" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="F150" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="G150" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H150" s="4"/>
+      <c r="F150" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>846</v>
+      </c>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
@@ -8691,13 +8706,13 @@
       <c r="E151" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="F151" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H151" s="14"/>
+      <c r="F151" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="G151" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
@@ -8705,12 +8720,22 @@
       <c r="M151" s="4"/>
     </row>
     <row r="152" spans="3:13">
-      <c r="C152" s="4"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="14"/>
-      <c r="H152" s="4"/>
+      <c r="C152" s="4">
+        <v>151</v>
+      </c>
+      <c r="D152" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="E152" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H152" s="14"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
@@ -8718,12 +8743,14 @@
       <c r="M152" s="4"/>
     </row>
     <row r="153" spans="3:13">
-      <c r="C153" s="4"/>
+      <c r="C153" s="4">
+        <v>152</v>
+      </c>
       <c r="D153" s="18"/>
       <c r="E153" s="14"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="14"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
       <c r="K153" s="4"/>
@@ -8734,9 +8761,9 @@
       <c r="C154" s="4"/>
       <c r="D154" s="18"/>
       <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="14"/>
-      <c r="H154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="14"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
@@ -8749,7 +8776,7 @@
       <c r="E155" s="14"/>
       <c r="F155" s="14"/>
       <c r="G155" s="14"/>
-      <c r="H155" s="14"/>
+      <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
       <c r="K155" s="4"/>
@@ -8759,10 +8786,10 @@
     <row r="156" spans="3:13">
       <c r="C156" s="4"/>
       <c r="D156" s="18"/>
-      <c r="E156" s="19"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="19"/>
+      <c r="E156" s="14"/>
+      <c r="F156" s="14"/>
+      <c r="G156" s="14"/>
+      <c r="H156" s="14"/>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
@@ -8773,9 +8800,9 @@
       <c r="C157" s="4"/>
       <c r="D157" s="18"/>
       <c r="E157" s="19"/>
-      <c r="F157" s="19"/>
-      <c r="G157" s="19"/>
-      <c r="H157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="19"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
@@ -8788,7 +8815,7 @@
       <c r="E158" s="19"/>
       <c r="F158" s="19"/>
       <c r="G158" s="19"/>
-      <c r="H158" s="19"/>
+      <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
@@ -8799,8 +8826,8 @@
       <c r="C159" s="4"/>
       <c r="D159" s="18"/>
       <c r="E159" s="19"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="19"/>
       <c r="H159" s="19"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
@@ -8812,13 +8839,14 @@
       <c r="C160" s="4"/>
       <c r="D160" s="18"/>
       <c r="E160" s="19"/>
-      <c r="F160" s="19"/>
-      <c r="G160" s="19"/>
-      <c r="H160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="19"/>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
       <c r="L160" s="4"/>
+      <c r="M160" s="4"/>
     </row>
     <row r="161" spans="3:12">
       <c r="C161" s="4"/>
@@ -8826,7 +8854,7 @@
       <c r="E161" s="19"/>
       <c r="F161" s="19"/>
       <c r="G161" s="19"/>
-      <c r="H161" s="19"/>
+      <c r="H161" s="4"/>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
       <c r="K161" s="4"/>
@@ -8836,8 +8864,8 @@
       <c r="C162" s="4"/>
       <c r="D162" s="18"/>
       <c r="E162" s="19"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="19"/>
       <c r="H162" s="19"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
@@ -8848,9 +8876,9 @@
       <c r="C163" s="4"/>
       <c r="D163" s="18"/>
       <c r="E163" s="19"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="19"/>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
@@ -8862,7 +8890,7 @@
       <c r="E164" s="19"/>
       <c r="F164" s="19"/>
       <c r="G164" s="19"/>
-      <c r="H164" s="19"/>
+      <c r="H164" s="4"/>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
@@ -8872,8 +8900,8 @@
       <c r="C165" s="4"/>
       <c r="D165" s="18"/>
       <c r="E165" s="19"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="19"/>
       <c r="H165" s="19"/>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
@@ -8884,9 +8912,9 @@
       <c r="C166" s="4"/>
       <c r="D166" s="18"/>
       <c r="E166" s="19"/>
-      <c r="F166" s="19"/>
-      <c r="G166" s="19"/>
-      <c r="H166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="19"/>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
@@ -8898,7 +8926,7 @@
       <c r="E167" s="19"/>
       <c r="F167" s="19"/>
       <c r="G167" s="19"/>
-      <c r="H167" s="19"/>
+      <c r="H167" s="4"/>
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
@@ -8908,8 +8936,8 @@
       <c r="C168" s="4"/>
       <c r="D168" s="18"/>
       <c r="E168" s="19"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="19"/>
       <c r="H168" s="19"/>
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
@@ -8920,9 +8948,9 @@
       <c r="C169" s="4"/>
       <c r="D169" s="18"/>
       <c r="E169" s="19"/>
-      <c r="F169" s="19"/>
-      <c r="G169" s="19"/>
-      <c r="H169" s="4"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="19"/>
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
@@ -8934,7 +8962,7 @@
       <c r="E170" s="19"/>
       <c r="F170" s="19"/>
       <c r="G170" s="19"/>
-      <c r="H170" s="19"/>
+      <c r="H170" s="4"/>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
@@ -8944,8 +8972,8 @@
       <c r="C171" s="4"/>
       <c r="D171" s="18"/>
       <c r="E171" s="19"/>
-      <c r="F171" s="4"/>
-      <c r="G171" s="4"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="19"/>
       <c r="H171" s="19"/>
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
@@ -8956,9 +8984,9 @@
       <c r="C172" s="4"/>
       <c r="D172" s="18"/>
       <c r="E172" s="19"/>
-      <c r="F172" s="19"/>
-      <c r="G172" s="19"/>
-      <c r="H172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="19"/>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
@@ -8970,7 +8998,7 @@
       <c r="E173" s="19"/>
       <c r="F173" s="19"/>
       <c r="G173" s="19"/>
-      <c r="H173" s="19"/>
+      <c r="H173" s="4"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
@@ -8980,8 +9008,8 @@
       <c r="C174" s="4"/>
       <c r="D174" s="18"/>
       <c r="E174" s="19"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="19"/>
       <c r="H174" s="19"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
@@ -8992,9 +9020,9 @@
       <c r="C175" s="4"/>
       <c r="D175" s="18"/>
       <c r="E175" s="19"/>
-      <c r="F175" s="19"/>
-      <c r="G175" s="19"/>
-      <c r="H175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="19"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
@@ -9006,7 +9034,7 @@
       <c r="E176" s="19"/>
       <c r="F176" s="19"/>
       <c r="G176" s="19"/>
-      <c r="H176" s="19"/>
+      <c r="H176" s="4"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
@@ -9016,8 +9044,8 @@
       <c r="C177" s="4"/>
       <c r="D177" s="18"/>
       <c r="E177" s="19"/>
-      <c r="F177" s="4"/>
-      <c r="G177" s="4"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="19"/>
       <c r="H177" s="19"/>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
@@ -9028,9 +9056,9 @@
       <c r="C178" s="4"/>
       <c r="D178" s="18"/>
       <c r="E178" s="19"/>
-      <c r="F178" s="19"/>
-      <c r="G178" s="19"/>
-      <c r="H178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="19"/>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
@@ -9042,7 +9070,7 @@
       <c r="E179" s="19"/>
       <c r="F179" s="19"/>
       <c r="G179" s="19"/>
-      <c r="H179" s="19"/>
+      <c r="H179" s="4"/>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
@@ -9052,8 +9080,8 @@
       <c r="C180" s="4"/>
       <c r="D180" s="18"/>
       <c r="E180" s="19"/>
-      <c r="F180" s="4"/>
-      <c r="G180" s="4"/>
+      <c r="F180" s="19"/>
+      <c r="G180" s="19"/>
       <c r="H180" s="19"/>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
@@ -9064,9 +9092,9 @@
       <c r="C181" s="4"/>
       <c r="D181" s="18"/>
       <c r="E181" s="19"/>
-      <c r="F181" s="19"/>
-      <c r="G181" s="19"/>
-      <c r="H181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="19"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
       <c r="K181" s="4"/>
@@ -9078,7 +9106,7 @@
       <c r="E182" s="19"/>
       <c r="F182" s="19"/>
       <c r="G182" s="19"/>
-      <c r="H182" s="19"/>
+      <c r="H182" s="4"/>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
       <c r="K182" s="4"/>
@@ -9088,8 +9116,8 @@
       <c r="C183" s="4"/>
       <c r="D183" s="18"/>
       <c r="E183" s="19"/>
-      <c r="F183" s="4"/>
-      <c r="G183" s="4"/>
+      <c r="F183" s="19"/>
+      <c r="G183" s="19"/>
       <c r="H183" s="19"/>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
@@ -9100,9 +9128,9 @@
       <c r="C184" s="4"/>
       <c r="D184" s="18"/>
       <c r="E184" s="19"/>
-      <c r="F184" s="19"/>
-      <c r="G184" s="19"/>
-      <c r="H184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="19"/>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
       <c r="K184" s="4"/>
@@ -9114,7 +9142,7 @@
       <c r="E185" s="19"/>
       <c r="F185" s="19"/>
       <c r="G185" s="19"/>
-      <c r="H185" s="19"/>
+      <c r="H185" s="4"/>
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
       <c r="K185" s="4"/>
@@ -9124,8 +9152,8 @@
       <c r="C186" s="4"/>
       <c r="D186" s="18"/>
       <c r="E186" s="19"/>
-      <c r="F186" s="4"/>
-      <c r="G186" s="4"/>
+      <c r="F186" s="19"/>
+      <c r="G186" s="19"/>
       <c r="H186" s="19"/>
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
@@ -9136,9 +9164,9 @@
       <c r="C187" s="4"/>
       <c r="D187" s="18"/>
       <c r="E187" s="19"/>
-      <c r="F187" s="19"/>
-      <c r="G187" s="19"/>
-      <c r="H187" s="4"/>
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+      <c r="H187" s="19"/>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
       <c r="K187" s="4"/>
@@ -9150,7 +9178,7 @@
       <c r="E188" s="19"/>
       <c r="F188" s="19"/>
       <c r="G188" s="19"/>
-      <c r="H188" s="19"/>
+      <c r="H188" s="4"/>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
       <c r="K188" s="4"/>
@@ -9160,8 +9188,8 @@
       <c r="C189" s="4"/>
       <c r="D189" s="18"/>
       <c r="E189" s="19"/>
-      <c r="F189" s="4"/>
-      <c r="G189" s="4"/>
+      <c r="F189" s="19"/>
+      <c r="G189" s="19"/>
       <c r="H189" s="19"/>
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
@@ -9171,11 +9199,19 @@
     <row r="190" spans="3:12">
       <c r="C190" s="4"/>
       <c r="D190" s="18"/>
+      <c r="E190" s="19"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="19"/>
+      <c r="I190" s="4"/>
+      <c r="J190" s="4"/>
+      <c r="K190" s="4"/>
       <c r="L190" s="4"/>
     </row>
     <row r="191" spans="3:12">
       <c r="C191" s="4"/>
       <c r="D191" s="18"/>
+      <c r="L191" s="4"/>
     </row>
     <row r="192" spans="3:12">
       <c r="C192" s="4"/>
@@ -9197,9 +9233,21 @@
       <c r="C196" s="4"/>
       <c r="D196" s="18"/>
     </row>
+    <row r="197" spans="3:4">
+      <c r="C197" s="4"/>
+      <c r="D197" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N108">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N113">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -9208,16 +9256,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F189">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F190">
       <formula1>OFFSET(INDIRECT($E3),0,0,COUNTA(INDIRECT(E3&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G189">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G190">
       <formula1>INDIRECT(SUBSTITUTE(E3&amp;F3," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D196 D123:D127 D114 D95:D111 D7:D27 D71:D88 D160 D163 D166 D169 D172 D175 D178 D181 D184 D187 D190 D193 D133:D158">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D197 D124:D128 D115 D95:D111 D7:D27 D71:D88 D161 D164 D167 D170 D173 D176 D179 D182 D185 D188 D191 D194 D134:D159">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E189">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E190">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/600.40.20.10_PermissionForNewActionOfEachGroup.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.20.10_PermissionForNewActionOfEachGroup.xlsx
@@ -4822,8 +4822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
